--- a/233.xlsx
+++ b/233.xlsx
@@ -2,33 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-3390" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet Of Records" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -56,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -416,20 +410,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="FF1072BA"/>
+    <tabColor rgb="001072BA"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
-  <cols>
-    <col width="22.5" customWidth="1" min="2" max="2"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -511,22 +502,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>63763</t>
+          <t>李爱明</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-06-18 11:35:06</t>
+          <t>2021-06-24 16:22:16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>94.2</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>991.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -541,17 +532,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>45634</t>
+          <t>68463</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>442</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>71.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -561,17 +552,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>45678</t>
+          <t>62248</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>440</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>70.4</t>
+          <t>71.3</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -581,12 +572,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>已通</t>
+          <t>通过</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/233.xlsx
+++ b/233.xlsx
@@ -2,27 +2,33 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-3390" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet Of Records" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,7 +56,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -410,17 +416,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="001072BA"/>
+    <tabColor rgb="FF1072BA"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <cols>
+    <col width="21.625" bestFit="1" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -576,7 +585,1086 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>5414444</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-06-24 17:02:52</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>97634</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>62248</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>70.7</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>5414444</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-06-24 17:03:42</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>66666</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>62248</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>71.4</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>5414444</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-06-24 17:04:30</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>92.9</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1053.0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>44444</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>62248</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>70.8</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5414444</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-06-24 17:05:11</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1039.0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>46613</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>70.4</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>62248</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>71.6</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5414444</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-06-24 17:06:04</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1034.0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>AAAAA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>71.8</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>62248</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>5414444</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2021-06-24 17:06:45</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1041.0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>98989</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>71.3</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>62248</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5414444</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2021-06-24 17:07:24</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1039.0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>69764</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>71.3</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>62248</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>70.7</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>5414444</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2021-06-24 17:08:07</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1039.0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>69871</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>71.1</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>62248</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>5414444</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2021-06-24 17:08:45</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1035.0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>17396</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>71.1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>62248</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>5414444</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2021-06-24 17:09:31</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1042.0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>69736</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>70.7</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>62248</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>71.1</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>5414444</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2021-06-24 17:10:11</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1049.0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>36714</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>71.1</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>62248</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>70.8</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>5414444</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2021-06-24 17:13:25</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>92.9</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1046.0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>78931</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>70.8</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>62248</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>70.7</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>5414444</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2021-06-24 17:14:04</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1057.0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>78567</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>72.4</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>62248</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>70.7</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>5414444</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2021-06-24 17:15:23</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1040.0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>69246</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>70.7</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>62248</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>70.8</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>